--- a/src/site/resources/docs/Fanorona Bits Explanation.xlsx
+++ b/src/site/resources/docs/Fanorona Bits Explanation.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/gasy-fanorona-git/src/site/resources/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/gasy-fanorona-java/src/site/resources/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5CA39AB0-2DBF-FD43-BDA2-FA7CC98FF2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83CF83-EE9D-E242-9E9A-B5EF6960CACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" tabRatio="161" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" tabRatio="161" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BitSet" sheetId="1" r:id="rId1"/>
     <sheet name="Board" sheetId="2" r:id="rId2"/>
     <sheet name="Attackers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92513"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -170,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -558,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3784,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3954,11 +3956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
